--- a/EvolvedTax/wwwroot/Templates/InstituteClientsTemplate.xlsx
+++ b/EvolvedTax/wwwroot/Templates/InstituteClientsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaeemIqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C1948D-D928-43F9-A4CA-E27DA611DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24180267-12E3-4E2B-905B-F07FDE8D6F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,40 +27,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>[Partner Name 1]</t>
-  </si>
-  <si>
-    <t>[Partner Name 2]</t>
-  </si>
-  <si>
-    <t>[Address 1]</t>
-  </si>
-  <si>
-    <t>[Address 2]</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>[Phone Number]</t>
-  </si>
-  <si>
-    <t>ClientEmailID</t>
-  </si>
-  <si>
     <t>Province (If Applicable)</t>
   </si>
   <si>
     <t>Entity Name</t>
+  </si>
+  <si>
+    <t>Partner Name 1</t>
+  </si>
+  <si>
+    <t>Partner Name 2</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
   </si>
 </sst>
 </file>
@@ -104,10 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,42 +405,42 @@
     <col min="12" max="12" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
